--- a/data/tab2.xlsx
+++ b/data/tab2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Projets\QC_reporting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Projets\qc_reporting_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC6820BE-EA03-4D0C-8669-6B021053639C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553FEF9F-404E-463C-99E5-060479CEE42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5016" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{D710C2B0-C5EF-40D5-A9BE-F676BCF4D5F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D710C2B0-C5EF-40D5-A9BE-F676BCF4D5F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>  </t>
-  </si>
-  <si>
-    <t>Retail Banking </t>
-  </si>
-  <si>
-    <t>Corporate Banking </t>
   </si>
   <si>
     <r>
@@ -1093,7 +1087,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1171,76 +1165,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1360,14 +1284,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1398,65 +1319,41 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1792,473 +1689,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E9B0E7-FA00-4E55-876E-A9CC46228707}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H19"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="32"/>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>0</v>
+    <row r="2" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>6</v>
+    <row r="3" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>13</v>
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>20</v>
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>27</v>
+      <c r="A6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>34</v>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>41</v>
+    <row r="8" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="8" t="s">
+    <row r="9" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="10" spans="1:8" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>54</v>
+    <row r="10" spans="1:8" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>47</v>
+      <c r="A11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="60.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>63</v>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>70</v>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>77</v>
+      <c r="A14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>84</v>
+    <row r="15" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>88</v>
+      <c r="A16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="11" t="s">
+    <row r="17" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="C17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="D17" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="E17" s="22"/>
+      <c r="F17" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="G17" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>105</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>